--- a/i_codebooks/D5_Table_3_Covariates_ImmDis.xlsx
+++ b/i_codebooks/D5_Table_3_Covariates_ImmDis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\ROC18_Objective_2\i_codebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\Pipeline_template_CoMaSy\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D337150-2D70-46CB-B728-2F399127E3FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2BDBF1-55FB-428E-AA26-0C5885E4BFD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -2014,9 +2014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
@@ -6540,7 +6538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
